--- a/ky/downloads/data-excel/15.1.2.1.xlsx
+++ b/ky/downloads/data-excel/15.1.2.1.xlsx
@@ -510,9 +510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -521,7 +519,7 @@
     <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -534,7 +532,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
@@ -545,7 +543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -558,7 +556,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -598,8 +596,14 @@
       <c r="M4" s="4">
         <v>2021</v>
       </c>
+      <c r="N4" s="4">
+        <v>2022</v>
+      </c>
+      <c r="O4" s="4">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
@@ -637,6 +641,12 @@
         <v>6.53</v>
       </c>
       <c r="M5" s="5">
+        <v>6.53</v>
+      </c>
+      <c r="N5" s="5">
+        <v>6.53</v>
+      </c>
+      <c r="O5" s="5">
         <v>6.53</v>
       </c>
     </row>
